--- a/M101 Workspace/Gantt Chart.xlsx
+++ b/M101 Workspace/Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="278" documentId="8_{F35155B6-C8AC-CA48-B41D-F527357BE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE19FF12-233A-4BBA-ADC8-C2DFA664B0A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A056635-702D-AE4B-B9A5-85DE93A5E5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -162,12 +162,6 @@
   </si>
   <si>
     <t>First report</t>
-  </si>
-  <si>
-    <t>Learn from reference design &amp; upgrade our design</t>
-  </si>
-  <si>
-    <t>Subdivide each part into several small parts that can be tested independently for easy monitoring</t>
   </si>
   <si>
     <t>The cell at right contains the Phase 2 sample title. 
@@ -597,7 +591,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="ddd\,\ d\ mmm"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,6 +1280,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1293,18 +1299,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1315,7 +1309,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
@@ -1815,28 +1809,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B16"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="76" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="76" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.42578125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>3</v>
       </c>
@@ -1861,122 +1855,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="96">
+      <c r="D3" s="95"/>
+      <c r="E3" s="93">
         <v>44476</v>
       </c>
-      <c r="F3" s="96"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1">
+      <c r="F3" s="93"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>44473</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>44480</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>44487</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>44494</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>44501</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>44508</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>44515</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>44522</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44473</v>
@@ -2202,7 +2196,7 @@
         <v>44528</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>10</v>
       </c>
@@ -2450,14 +2444,14 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="41"/>
       <c r="E7"/>
       <c r="H7" t="str">
-        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="36"/>
@@ -2517,7 +2511,7 @@
       <c r="BK7" s="36"/>
       <c r="BL7" s="36"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>18</v>
       </c>
@@ -2530,7 +2524,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H37" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H35" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="36"/>
@@ -2590,7 +2584,7 @@
       <c r="BK8" s="36"/>
       <c r="BL8" s="36"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2606,7 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I9" s="36"/>
@@ -2672,7 +2666,7 @@
       <c r="BK9" s="36"/>
       <c r="BL9" s="36"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>23</v>
       </c>
@@ -2683,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="77">
         <v>44478</v>
@@ -2693,7 +2687,7 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I10" s="36"/>
@@ -2753,7 +2747,7 @@
       <c r="BK10" s="36"/>
       <c r="BL10" s="36"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="89" t="s">
         <v>25</v>
@@ -2772,7 +2766,7 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I11" s="36"/>
@@ -2832,7 +2826,7 @@
       <c r="BK11" s="36"/>
       <c r="BL11" s="36"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="89" t="s">
         <v>27</v>
@@ -2841,7 +2835,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="20">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E12" s="77">
         <v>44478</v>
@@ -2851,7 +2845,7 @@
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I12" s="36"/>
@@ -2911,7 +2905,7 @@
       <c r="BK12" s="36"/>
       <c r="BL12" s="36"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="89" t="s">
         <v>29</v>
@@ -2920,7 +2914,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="77">
         <v>44478</v>
@@ -2988,7 +2982,7 @@
       <c r="BK13" s="36"/>
       <c r="BL13" s="36"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="89" t="s">
         <v>31</v>
@@ -3064,25 +3058,18 @@
       <c r="BK14" s="36"/>
       <c r="BL14" s="36"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
-      <c r="B15" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
-      <c r="E15" s="77">
-        <v>44481</v>
-      </c>
-      <c r="F15" s="77">
-        <v>44482</v>
-      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -3099,7 +3086,7 @@
       <c r="V15" s="73"/>
       <c r="W15" s="73"/>
       <c r="X15" s="73"/>
-      <c r="Y15" s="74"/>
+      <c r="Y15" s="73"/>
       <c r="Z15" s="73"/>
       <c r="AA15" s="73"/>
       <c r="AB15" s="73"/>
@@ -3140,25 +3127,22 @@
       <c r="BK15" s="36"/>
       <c r="BL15" s="36"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="89" t="s">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="77">
-        <v>44481</v>
-      </c>
-      <c r="F16" s="77">
-        <v>44482</v>
-      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
@@ -3175,7 +3159,7 @@
       <c r="V16" s="73"/>
       <c r="W16" s="73"/>
       <c r="X16" s="73"/>
-      <c r="Y16" s="74"/>
+      <c r="Y16" s="73"/>
       <c r="Z16" s="73"/>
       <c r="AA16" s="73"/>
       <c r="AB16" s="73"/>
@@ -3216,17 +3200,27 @@
       <c r="BK16" s="36"/>
       <c r="BL16" s="36"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="82">
+        <v>44483</v>
+      </c>
+      <c r="F17" s="82">
+        <v>44489</v>
+      </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="H17" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -3285,21 +3279,27 @@
       <c r="BK17" s="36"/>
       <c r="BL17" s="36"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
+      <c r="C18" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="82">
+        <v>44483</v>
+      </c>
+      <c r="F18" s="82">
+        <v>44489</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="H18" s="17">
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -3313,8 +3313,8 @@
       <c r="R18" s="73"/>
       <c r="S18" s="73"/>
       <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
       <c r="W18" s="73"/>
       <c r="X18" s="73"/>
       <c r="Y18" s="73"/>
@@ -3358,13 +3358,13 @@
       <c r="BK18" s="36"/>
       <c r="BL18" s="36"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A19" s="75"/>
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76"/>
       <c r="B19" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D19" s="23">
         <v>0</v>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I19" s="36"/>
@@ -3437,27 +3437,17 @@
       <c r="BK19" s="36"/>
       <c r="BL19" s="36"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="82">
-        <v>44483</v>
-      </c>
-      <c r="F20" s="82">
-        <v>44489</v>
-      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+      <c r="H20" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -3471,11 +3461,11 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
       <c r="W20" s="73"/>
       <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
+      <c r="Y20" s="74"/>
       <c r="Z20" s="73"/>
       <c r="AA20" s="73"/>
       <c r="AB20" s="73"/>
@@ -3516,27 +3506,17 @@
       <c r="BK20" s="36"/>
       <c r="BL20" s="36"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
-      <c r="B21" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="82">
-        <v>44483</v>
-      </c>
-      <c r="F21" s="82">
-        <v>44489</v>
-      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+      <c r="H21" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -3595,16 +3575,20 @@
       <c r="BK21" s="36"/>
       <c r="BL21" s="36"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A22" s="76"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I22" s="36"/>
@@ -3623,7 +3607,7 @@
       <c r="V22" s="73"/>
       <c r="W22" s="73"/>
       <c r="X22" s="73"/>
-      <c r="Y22" s="74"/>
+      <c r="Y22" s="73"/>
       <c r="Z22" s="73"/>
       <c r="AA22" s="73"/>
       <c r="AB22" s="73"/>
@@ -3664,17 +3648,23 @@
       <c r="BK22" s="36"/>
       <c r="BL22" s="36"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
+      <c r="B23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="85">
+        <v>44490</v>
+      </c>
+      <c r="F23" s="85">
+        <v>44491</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="H23" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -3733,21 +3723,23 @@
       <c r="BK23" s="36"/>
       <c r="BL23" s="36"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A24" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="76"/>
+      <c r="B24" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="85">
+        <v>44491</v>
+      </c>
+      <c r="F24" s="85">
+        <v>44496</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="H24" s="17">
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -3806,23 +3798,17 @@
       <c r="BK24" s="36"/>
       <c r="BL24" s="36"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
-      <c r="B25" s="57" t="s">
-        <v>42</v>
-      </c>
+      <c r="B25" s="57"/>
       <c r="C25" s="51"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="85">
-        <v>44490</v>
-      </c>
-      <c r="F25" s="85">
-        <v>44491</v>
-      </c>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+      <c r="H25" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -3881,23 +3867,17 @@
       <c r="BK25" s="36"/>
       <c r="BL25" s="36"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
-      <c r="B26" s="57" t="s">
-        <v>41</v>
-      </c>
+      <c r="B26" s="57"/>
       <c r="C26" s="51"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="85">
-        <v>44491</v>
-      </c>
-      <c r="F26" s="85">
-        <v>44496</v>
-      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+      <c r="H26" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -3956,7 +3936,7 @@
       <c r="BK26" s="36"/>
       <c r="BL26" s="36"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76"/>
       <c r="B27" s="57"/>
       <c r="C27" s="51"/>
@@ -3965,7 +3945,7 @@
       <c r="F27" s="85"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I27" s="36"/>
@@ -4025,58 +4005,62 @@
       <c r="BK27" s="36"/>
       <c r="BL27" s="36"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
@@ -4094,58 +4078,64 @@
       <c r="BK28" s="36"/>
       <c r="BL28" s="36"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
+      <c r="B29" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="88">
+        <v>44497</v>
+      </c>
+      <c r="F29" s="88">
+        <v>44502</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="H29" s="17">
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
@@ -4163,21 +4153,23 @@
       <c r="BK29" s="36"/>
       <c r="BL29" s="36"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A30" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="88">
+        <v>44504</v>
+      </c>
+      <c r="F30" s="88">
+        <v>44507</v>
+      </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+      <c r="H30" s="17">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -4236,23 +4228,23 @@
       <c r="BK30" s="36"/>
       <c r="BL30" s="36"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
       <c r="B31" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="29"/>
       <c r="E31" s="88">
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="F31" s="88">
-        <v>44502</v>
+        <v>44507</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -4311,23 +4303,17 @@
       <c r="BK31" s="36"/>
       <c r="BL31" s="36"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="76"/>
-      <c r="B32" s="58" t="s">
-        <v>43</v>
-      </c>
+      <c r="B32" s="58"/>
       <c r="C32" s="53"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="88">
-        <v>44504</v>
-      </c>
-      <c r="F32" s="88">
-        <v>44507</v>
-      </c>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+      <c r="H32" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -4386,23 +4372,17 @@
       <c r="BK32" s="36"/>
       <c r="BL32" s="36"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="76"/>
-      <c r="B33" s="58" t="s">
-        <v>45</v>
-      </c>
+      <c r="B33" s="58"/>
       <c r="C33" s="53"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="88">
-        <v>44504</v>
-      </c>
-      <c r="F33" s="88">
-        <v>44507</v>
-      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+      <c r="H33" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -4461,16 +4441,18 @@
       <c r="BK33" s="36"/>
       <c r="BL33" s="36"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I34" s="36"/>
@@ -4530,264 +4512,129 @@
       <c r="BK34" s="36"/>
       <c r="BL34" s="36"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="36"/>
-      <c r="AW35" s="36"/>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="36"/>
-      <c r="BA35" s="36"/>
-      <c r="BB35" s="36"/>
-      <c r="BC35" s="36"/>
-      <c r="BD35" s="36"/>
-      <c r="BE35" s="36"/>
-      <c r="BF35" s="36"/>
-      <c r="BG35" s="36"/>
-      <c r="BH35" s="36"/>
-      <c r="BI35" s="36"/>
-      <c r="BJ35" s="36"/>
-      <c r="BK35" s="36"/>
-      <c r="BL35" s="36"/>
-    </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="36"/>
-      <c r="AZ36" s="36"/>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="36"/>
-      <c r="BF36" s="36"/>
-      <c r="BG36" s="36"/>
-      <c r="BH36" s="36"/>
-      <c r="BI36" s="36"/>
-      <c r="BJ36" s="36"/>
-      <c r="BK36" s="36"/>
-      <c r="BL36" s="36"/>
-    </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A37" s="75" t="s">
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="37"/>
+      <c r="AO35" s="37"/>
+      <c r="AP35" s="37"/>
+      <c r="AQ35" s="37"/>
+      <c r="AR35" s="37"/>
+      <c r="AS35" s="37"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="37"/>
+      <c r="AW35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="37"/>
+      <c r="BF35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BH35" s="37"/>
+      <c r="BI35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BK35" s="37"/>
+      <c r="BL35" s="37"/>
+    </row>
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="14"/>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="30" t="s">
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BE37" s="37"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BH37" s="37"/>
-      <c r="BI37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BK37" s="37"/>
-      <c r="BL37" s="37"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1">
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1">
-      <c r="C39" s="14"/>
-      <c r="F39" s="39"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1">
+    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="55"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="55" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B45" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B46" s="55"/>
-    </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1">
-      <c r="B47" s="55" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4795,13 +4642,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D37">
+  <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4815,12 +4657,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL37">
+  <conditionalFormatting sqref="I5:BL35">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL37">
+  <conditionalFormatting sqref="I7:BL35">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4859,7 +4701,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D37</xm:sqref>
+          <xm:sqref>D7:D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4875,234 +4717,234 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.95">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="62" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.95">
-      <c r="A2" s="68" t="s">
+      <c r="C2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.95">
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.95">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
       <c r="B4" s="68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.95">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="68"/>
       <c r="B6" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.95">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
       <c r="C7" s="65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.95">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="68"/>
       <c r="B8" s="68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="63.95">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="69"/>
       <c r="B9" s="69"/>
       <c r="C9" s="65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.95">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="68"/>
       <c r="B10" s="68"/>
       <c r="C10" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.95">
-      <c r="A11" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.95">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="68"/>
       <c r="B12" s="68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.95">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="63"/>
     </row>
-    <row r="14" spans="1:3" ht="15.95">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="68"/>
       <c r="B14" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.95">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="69"/>
       <c r="B15" s="69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="63"/>
     </row>
-    <row r="16" spans="1:3" ht="15.95">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="69"/>
       <c r="B17" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="63"/>
     </row>
-    <row r="18" spans="1:3" ht="15.95">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="68"/>
       <c r="B18" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.95">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="69"/>
       <c r="B19" s="69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="63"/>
     </row>
-    <row r="20" spans="1:3" ht="15.95">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.95">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="69"/>
       <c r="B21" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="63"/>
     </row>
-    <row r="22" spans="1:3" ht="15.95">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="68"/>
       <c r="B22" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.95">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="69"/>
       <c r="B23" s="69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="66" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.95">
-      <c r="A24" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="70"/>
       <c r="B25" s="70"/>
       <c r="C25" s="60"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="71"/>
       <c r="B26" s="71"/>
       <c r="C26" s="61"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="70"/>
       <c r="B27" s="70"/>
       <c r="C27" s="60"/>
